--- a/talkUtility/talk_template.xlsx
+++ b/talkUtility/talk_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>老师名称</t>
   </si>
@@ -35,6 +35,15 @@
   </si>
   <si>
     <t>实际完课量</t>
+  </si>
+  <si>
+    <t>name1</t>
+  </si>
+  <si>
+    <t>name2</t>
+  </si>
+  <si>
+    <t>name3</t>
   </si>
 </sst>
 </file>
@@ -1179,13 +1188,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="15.5384615384615" customWidth="1"/>
     <col min="2" max="2" width="14.5769230769231" customWidth="1"/>
@@ -1207,6 +1216,21 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/talkUtility/talk_template.xlsx
+++ b/talkUtility/talk_template.xlsx
@@ -1191,7 +1191,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="3"/>
